--- a/c/asm_demo/汇编指令示意.xlsx
+++ b/c/asm_demo/汇编指令示意.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\Github-Test\c\asm_demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-Test\c\asm_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168369CC-BFBA-4353-858C-4A4B5BD7A354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A1FC4A-402A-4F84-A47C-37AA06DCA0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="600" windowWidth="36000" windowHeight="31800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,17 +75,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,7 +118,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,18 +398,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:5">
       <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,12 +417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:5">
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:5">
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
@@ -430,12 +430,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:5">
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:5">
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
@@ -443,12 +443,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:5">
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:5">
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
